--- a/control.xlsx
+++ b/control.xlsx
@@ -317,7 +317,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -345,11 +345,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -447,7 +442,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -460,11 +455,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -476,10 +471,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -492,15 +483,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -508,50 +527,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -617,19 +600,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.16"/>
@@ -641,7 +623,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="9.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="53.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="43.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -767,53 +748,53 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="8" t="s">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="8" t="s">
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -827,46 +808,46 @@
       <c r="C4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="14" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
       <c r="P4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
       <c r="V4" s="0" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="13"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
@@ -875,7 +856,7 @@
       <c r="B6" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="8"/>
       <c r="V6" s="0" t="s">
         <v>42</v>
       </c>
@@ -888,69 +869,69 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+    <row r="9" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="16" t="s">
+      <c r="F9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="P9" s="16" t="s">
+      <c r="J9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="16" t="s">
+      <c r="Q9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="S9" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="V9" s="16" t="s">
+      <c r="R9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="V9" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -962,76 +943,76 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+    <row r="12" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="C12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="P12" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q12" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="R12" s="16" t="s">
+      <c r="H12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="R12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="S12" s="16" t="s">
+      <c r="S12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="U12" s="16" t="s">
+      <c r="U12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="V12" s="16" t="s">
+      <c r="V12" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -1040,13 +1021,13 @@
       <c r="D13" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="22" t="s">
+      <c r="E13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>48</v>
       </c>
       <c r="H13" s="0" t="s">
@@ -1055,22 +1036,22 @@
       <c r="I13" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13" s="23" t="s">
+      <c r="J13" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="19" t="s">
         <v>51</v>
       </c>
       <c r="P13" s="0" t="s">
@@ -1079,14 +1060,14 @@
       <c r="Q13" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="R13" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="S13" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18" t="s">
+      <c r="R13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14" t="s">
         <v>48</v>
       </c>
       <c r="V13" s="0" t="s">
@@ -1101,76 +1082,76 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
+    <row r="16" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="O16" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="P16" s="16" t="s">
+      <c r="L16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q16" s="16" t="s">
+      <c r="Q16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R16" s="16" t="s">
+      <c r="R16" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="S16" s="16" t="s">
+      <c r="S16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="U16" s="16" t="s">
+      <c r="U16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="V16" s="16" t="s">
+      <c r="V16" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="W16" s="16" t="s">
+      <c r="W16" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="0" t="s">
@@ -1185,10 +1166,10 @@
       <c r="E17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="18" t="s">
         <v>48</v>
       </c>
       <c r="H17" s="0" t="s">
@@ -1197,22 +1178,22 @@
       <c r="I17" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="M17" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="O17" s="23" t="s">
+      <c r="J17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" s="19" t="s">
         <v>51</v>
       </c>
       <c r="P17" s="0" t="s">
@@ -1227,7 +1208,7 @@
       <c r="S17" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="14" t="n">
+      <c r="T17" s="7" t="n">
         <v>1</v>
       </c>
       <c r="U17" s="0" t="s">
@@ -1241,7 +1222,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="16" t="s">
         <v>74</v>
       </c>
       <c r="B18" s="0" t="s">
@@ -1256,50 +1237,50 @@
       <c r="E18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="0" t="s">
+      <c r="F18" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="M18" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="N18" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="O18" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="P18" s="23" t="s">
+      <c r="H18" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" s="19" t="s">
         <v>51</v>
       </c>
       <c r="Q18" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="R18" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="S18" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22" t="s">
+      <c r="R18" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="S18" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18" t="s">
         <v>48</v>
       </c>
       <c r="V18" s="0" t="s">
@@ -1317,73 +1298,73 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
+    <row r="21" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="17" t="s">
+      <c r="C21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="N21" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="O21" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="P21" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q21" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="R21" s="16" t="s">
+      <c r="H21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="R21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="S21" s="16" t="s">
+      <c r="S21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="U21" s="16" t="s">
+      <c r="U21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="V21" s="16" t="s">
+      <c r="V21" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -1395,13 +1376,13 @@
       <c r="D22" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="22" t="s">
+      <c r="E22" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="18" t="s">
         <v>48</v>
       </c>
       <c r="H22" s="0" t="s">
@@ -1410,22 +1391,22 @@
       <c r="I22" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="K22" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L22" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="M22" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="N22" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="O22" s="23" t="s">
+      <c r="J22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="O22" s="19" t="s">
         <v>51</v>
       </c>
       <c r="P22" s="0" t="s">
@@ -1443,7 +1424,7 @@
       <c r="T22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U22" s="14" t="s">
+      <c r="U22" s="7" t="s">
         <v>56</v>
       </c>
       <c r="V22" s="0" t="s">
@@ -1451,7 +1432,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="16" t="s">
         <v>74</v>
       </c>
       <c r="B23" s="0" t="s">
@@ -1469,34 +1450,34 @@
       <c r="F23" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="M23" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="N23" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="O23" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="P23" s="23" t="s">
+      <c r="G23" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="O23" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" s="19" t="s">
         <v>51</v>
       </c>
       <c r="Q23" s="0" t="s">
@@ -1516,7 +1497,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="16" t="s">
         <v>88</v>
       </c>
       <c r="B24" s="0" t="s">
@@ -1531,10 +1512,10 @@
       <c r="E24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="22" t="s">
+      <c r="F24" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="18" t="s">
         <v>48</v>
       </c>
       <c r="H24" s="0" t="s">
@@ -1543,22 +1524,22 @@
       <c r="I24" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L24" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="M24" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="N24" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="O24" s="23" t="s">
+      <c r="J24" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" s="19" t="s">
         <v>51</v>
       </c>
       <c r="P24" s="0" t="s">
@@ -1567,14 +1548,14 @@
       <c r="Q24" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="R24" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="S24" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22" t="s">
+      <c r="R24" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="S24" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1586,76 +1567,76 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="s">
+    <row r="27" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="16" t="s">
+      <c r="G27" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="I27" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J27" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="N27" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="O27" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="P27" s="16" t="s">
+      <c r="J27" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q27" s="16" t="s">
+      <c r="Q27" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R27" s="16" t="s">
+      <c r="R27" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="S27" s="16" t="s">
+      <c r="S27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="T27" s="16" t="n">
+      <c r="T27" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="U27" s="14" t="s">
+      <c r="U27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="V27" s="16" t="s">
+      <c r="V27" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="0" t="s">
@@ -1682,22 +1663,22 @@
       <c r="I28" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L28" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="M28" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="N28" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="O28" s="23" t="s">
+      <c r="J28" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="O28" s="19" t="s">
         <v>51</v>
       </c>
       <c r="P28" s="0" t="s">
@@ -1720,7 +1701,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="16" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="0" t="s">
@@ -1738,7 +1719,7 @@
       <c r="F29" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="18" t="s">
         <v>48</v>
       </c>
       <c r="H29" s="0" t="s">
@@ -1747,22 +1728,22 @@
       <c r="I29" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L29" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="M29" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="N29" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="O29" s="23" t="s">
+      <c r="J29" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="O29" s="19" t="s">
         <v>51</v>
       </c>
       <c r="P29" s="0" t="s">
@@ -1774,13 +1755,13 @@
       <c r="R29" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="S29" s="14" t="s">
+      <c r="S29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="14" t="n">
+      <c r="T29" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U29" s="14" t="s">
+      <c r="U29" s="7" t="s">
         <v>56</v>
       </c>
       <c r="V29" s="0" t="s">
@@ -1788,7 +1769,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="16" t="s">
         <v>88</v>
       </c>
       <c r="B30" s="0" t="s">
@@ -1803,50 +1784,50 @@
       <c r="E30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I30" s="0" t="s">
+      <c r="F30" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L30" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="M30" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="N30" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="O30" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="P30" s="23" t="s">
+      <c r="H30" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N30" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="O30" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" s="19" t="s">
         <v>51</v>
       </c>
       <c r="Q30" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="R30" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="S30" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22" t="s">
+      <c r="R30" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="S30" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18" t="s">
         <v>48</v>
       </c>
       <c r="V30" s="0" t="s">
@@ -1856,53 +1837,53 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
+    <row r="32" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="8" t="s">
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="8" t="s">
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q32" s="8" t="s">
+      <c r="Q32" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R32" s="11" t="s">
+      <c r="R32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="8" t="s">
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1916,40 +1897,40 @@
       <c r="C33" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="14" t="s">
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="I33" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="J33" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="K33" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
       <c r="P33" s="0" t="s">
         <v>12</v>
       </c>
       <c r="Q33" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
       <c r="V33" s="0" t="s">
         <v>39</v>
       </c>
@@ -1965,7 +1946,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
